--- a/Tracking.xlsx
+++ b/Tracking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WIP\RinkRidh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rsharma309\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F444D67-6F9C-49A1-8FA6-EB99AEA9E4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509C2424-EDFE-4230-8F47-DB84794C67BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{D3E0A8E3-D54A-41CA-9C4D-EDEAE1147737}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D3E0A8E3-D54A-41CA-9C4D-EDEAE1147737}"/>
   </bookViews>
   <sheets>
     <sheet name="Ridhi Tracking Sheet" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="180">
   <si>
     <t>#</t>
   </si>
@@ -994,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92AA0ECA-3E87-4359-A9A3-9D75D6F154F1}">
   <dimension ref="A1:N96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:N6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1064,15 +1065,15 @@
       </c>
       <c r="K2" s="5">
         <f>ROUND((COUNTIF(E2:E15,"Done")/COUNTIF(B2:B15,"Maths"))*100,0)/100</f>
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="L2" s="5">
         <f>ROUND((COUNTIF(F2:F15,"Done")/COUNTIF(B2:B15,"Maths"))*100,0)/100</f>
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="M2" s="5">
         <f>ROUND((COUNTIF(G2:G15,"Done")/COUNTIF(B2:B15,"Maths"))*100,0)/100</f>
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="N2" s="5">
         <f>ROUND((COUNTIF(H2:H15,"Done")/COUNTIF(B2:B15,"Maths"))*100,0)/100</f>
@@ -1100,11 +1101,11 @@
       </c>
       <c r="K3" s="5">
         <f>ROUND((COUNTIF(E16:E28,"Done")/COUNTIF(B16:B28,"Science"))*100,0)/100</f>
-        <v>0.69</v>
+        <v>0.92</v>
       </c>
       <c r="L3" s="5">
         <f>ROUND((COUNTIF(F16:F28,"Done")/COUNTIF(B16:B28,"Science"))*100,0)/100</f>
-        <v>0.46</v>
+        <v>0.54</v>
       </c>
       <c r="M3" s="5">
         <f>ROUND((COUNTIF(G16:G28,"Done")/COUNTIF(B16:B28,"Science"))*100,0)/100</f>
@@ -1136,7 +1137,7 @@
       </c>
       <c r="K4" s="5">
         <f>ROUND((COUNTIF(E49:E71,"Done")/COUNTIF(B49:B71,"SS"))*100,0)/100</f>
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="L4" s="5">
         <f>ROUND((COUNTIF(F49:F71,"Done")/COUNTIF(B49:B71,"SS"))*100,0)/100</f>
@@ -1172,7 +1173,7 @@
       </c>
       <c r="K5" s="5">
         <f>ROUND((COUNTIF(E29:E48,"Done")/COUNTIF(B29:B48,"English"))*100,0)/100</f>
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="L5" s="5">
         <f>ROUND((COUNTIF(F29:F48,"Done")/COUNTIF(B29:B48,"English"))*100,0)/100</f>
@@ -1202,7 +1203,7 @@
       </c>
       <c r="K6" s="5">
         <f>ROUND((COUNTIF(E72:E96,"Done")/COUNTIF(B72:B96,"Hindi"))*100,0)/100</f>
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="L6" s="5">
         <f>ROUND((COUNTIF(F72:F96,"Done")/COUNTIF(B72:B96,"Hindi"))*100,0)/100</f>
@@ -1274,6 +1275,9 @@
       <c r="D11" t="s">
         <v>21</v>
       </c>
+      <c r="E11" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
@@ -1296,6 +1300,12 @@
       <c r="E13" t="s">
         <v>110</v>
       </c>
+      <c r="F13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
@@ -1304,6 +1314,9 @@
       <c r="D14" t="s">
         <v>24</v>
       </c>
+      <c r="E14" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
@@ -1380,6 +1393,12 @@
       <c r="D19" t="s">
         <v>30</v>
       </c>
+      <c r="E19" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
@@ -1480,6 +1499,9 @@
       <c r="D27" t="s">
         <v>38</v>
       </c>
+      <c r="E27" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
@@ -1488,6 +1510,9 @@
       <c r="D28" t="s">
         <v>39</v>
       </c>
+      <c r="E28" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="29" spans="2:7" ht="58" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
@@ -1584,6 +1609,9 @@
       <c r="D37" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="E37" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
@@ -1592,6 +1620,9 @@
       <c r="D38" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="E38" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
@@ -1696,6 +1727,9 @@
       <c r="D48" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="E48" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
@@ -1726,6 +1760,9 @@
       <c r="D51" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="E51" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
@@ -2051,6 +2088,9 @@
       <c r="D83" s="1" t="s">
         <v>95</v>
       </c>
+      <c r="E83" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
@@ -2059,6 +2099,9 @@
       <c r="D84" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="E84" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B85" t="s">
@@ -2067,6 +2110,9 @@
       <c r="D85" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="E85" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
@@ -2124,6 +2170,9 @@
       <c r="D91" s="1" t="s">
         <v>103</v>
       </c>
+      <c r="E91" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B92" t="s">
@@ -2132,6 +2181,9 @@
       <c r="D92" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="E92" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B93" t="s">
@@ -2139,6 +2191,9 @@
       </c>
       <c r="D93" s="1" t="s">
         <v>105</v>
+      </c>
+      <c r="E93" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.35">
@@ -2181,8 +2236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2534A831-4DE1-4155-91DE-23BB86F539E8}">
   <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2262,19 +2317,19 @@
       </c>
       <c r="M2" s="5">
         <f>ROUND((COUNTIF(D2:D15,"Done")/COUNTIF(B2:B15,"Maths"))*100,0)/100</f>
-        <v>0.28999999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="N2" s="5">
         <f>ROUND((COUNTIF(E2:E15,"Done")/COUNTIF(B2:B15,"Maths"))*100,0)/100</f>
-        <v>0.36</v>
+        <v>0.43</v>
       </c>
       <c r="O2" s="5">
         <f>ROUND((COUNTIF(F2:F15,"Done")/COUNTIF(B2:B15,"Maths"))*100,0)/100</f>
-        <v>0.14000000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="P2" s="5">
         <f>ROUND((COUNTIF(I2:I15,"Done")/COUNTIF(B2:B15,"Maths"))*100,0)/100</f>
-        <v>0.14000000000000001</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
@@ -2293,7 +2348,7 @@
       </c>
       <c r="M3" s="5">
         <f>ROUND((COUNTIF(D17:D36,"Done")/COUNTIF(B17:B36,"Physics"))*100,0)/100</f>
-        <v>0.2</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="N3" s="5">
         <f>ROUND((COUNTIF(E17:E36,"Done")/COUNTIF(B17:B36,"Physics"))*100,0)/100</f>
@@ -2301,11 +2356,11 @@
       </c>
       <c r="O3" s="5">
         <f>ROUND((COUNTIF(F17:F36,"Done")/COUNTIF(B17:B36,"Physics"))*100,0)/100</f>
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="P3" s="5">
         <f>ROUND((COUNTIF(I17:I36,"Done")/COUNTIF(B17:B36,"Physics"))*100,0)/100</f>
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
@@ -2330,28 +2385,27 @@
       <c r="H4">
         <v>2</v>
       </c>
-      <c r="I4" t="str">
-        <f>IF(ISBLANK(G4),"",IF(G4=H4,"Done",""))</f>
-        <v/>
+      <c r="I4" t="s">
+        <v>110</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M4" s="5">
         <f>ROUND((COUNTIF(D37:D80,"Done")/COUNTIF(B37:B80,"Chemistry"))*100,0)/100</f>
-        <v>0.24</v>
+        <v>0.38</v>
       </c>
       <c r="N4" s="5">
         <f>ROUND((COUNTIF(E37:E80,"Done")/COUNTIF(B37:B80,"Chemistry"))*100,0)/100</f>
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
       <c r="O4" s="5">
         <f>ROUND((COUNTIF(F37:F80,"Done")/COUNTIF(B37:B80,"Chemistry"))*100,0)/100</f>
-        <v>0.21</v>
+        <v>0.31</v>
       </c>
       <c r="P4" s="5">
         <f>ROUND((COUNTIF(I37:I80,"Done")/COUNTIF(B37:B80,"Chemistry"))*100,0)/100</f>
-        <v>0.14000000000000001</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
@@ -2378,12 +2432,24 @@
       <c r="C6" t="s">
         <v>129</v>
       </c>
+      <c r="D6" t="s">
+        <v>110</v>
+      </c>
       <c r="E6" t="s">
         <v>110</v>
       </c>
+      <c r="F6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
       <c r="I6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Done</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="5"/>
@@ -2449,18 +2515,23 @@
       <c r="C10" t="s">
         <v>122</v>
       </c>
+      <c r="D10" t="s">
+        <v>110</v>
+      </c>
       <c r="E10" t="s">
         <v>110</v>
       </c>
+      <c r="F10" t="s">
+        <v>110</v>
+      </c>
       <c r="G10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H10">
         <v>6</v>
       </c>
-      <c r="I10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="I10" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
@@ -2470,6 +2541,9 @@
       <c r="C11" t="s">
         <v>123</v>
       </c>
+      <c r="D11" t="s">
+        <v>110</v>
+      </c>
       <c r="I11" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2521,6 +2595,15 @@
       <c r="D15" t="s">
         <v>110</v>
       </c>
+      <c r="E15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
       <c r="I15" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2587,7 +2670,13 @@
       <c r="C18" t="s">
         <v>131</v>
       </c>
+      <c r="D18" t="s">
+        <v>110</v>
+      </c>
       <c r="E18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" t="s">
         <v>110</v>
       </c>
       <c r="G18">
@@ -2596,9 +2685,8 @@
       <c r="H18">
         <v>4</v>
       </c>
-      <c r="I18" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="I18" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.35">
@@ -2608,12 +2696,23 @@
       <c r="C19" t="s">
         <v>132</v>
       </c>
+      <c r="D19" t="s">
+        <v>110</v>
+      </c>
       <c r="E19" t="s">
         <v>110</v>
       </c>
-      <c r="I19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="F19" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>6</v>
+      </c>
+      <c r="I19" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.35">
@@ -2623,18 +2722,24 @@
       <c r="C20" t="s">
         <v>133</v>
       </c>
+      <c r="D20" t="s">
+        <v>110</v>
+      </c>
       <c r="E20" t="s">
         <v>110</v>
       </c>
+      <c r="F20" t="s">
+        <v>110</v>
+      </c>
       <c r="G20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H20">
         <v>6</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Done</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.35">
@@ -2743,18 +2848,24 @@
       <c r="C28" t="s">
         <v>141</v>
       </c>
+      <c r="D28" t="s">
+        <v>110</v>
+      </c>
       <c r="E28" t="s">
         <v>110</v>
       </c>
+      <c r="F28" t="s">
+        <v>110</v>
+      </c>
       <c r="G28">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H28">
         <v>6</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Done</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.35">
@@ -2764,6 +2875,9 @@
       <c r="C29" t="s">
         <v>142</v>
       </c>
+      <c r="D29" t="s">
+        <v>110</v>
+      </c>
       <c r="I29" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2788,6 +2902,9 @@
       <c r="C31" t="s">
         <v>144</v>
       </c>
+      <c r="D31" t="s">
+        <v>110</v>
+      </c>
       <c r="I31" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2812,6 +2929,9 @@
       <c r="C33" t="s">
         <v>146</v>
       </c>
+      <c r="D33" t="s">
+        <v>110</v>
+      </c>
       <c r="I33" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2899,6 +3019,15 @@
       <c r="C38" t="s">
         <v>151</v>
       </c>
+      <c r="D38" t="s">
+        <v>110</v>
+      </c>
+      <c r="E38" t="s">
+        <v>110</v>
+      </c>
+      <c r="F38" t="s">
+        <v>110</v>
+      </c>
       <c r="I38" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3046,15 +3175,24 @@
       <c r="C49" t="s">
         <v>162</v>
       </c>
+      <c r="D49" t="s">
+        <v>110</v>
+      </c>
       <c r="E49" t="s">
         <v>110</v>
       </c>
       <c r="F49" t="s">
         <v>110</v>
       </c>
+      <c r="G49">
+        <v>5</v>
+      </c>
+      <c r="H49">
+        <v>5</v>
+      </c>
       <c r="I49" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Done</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.35">
@@ -3082,6 +3220,9 @@
       <c r="E51" t="s">
         <v>110</v>
       </c>
+      <c r="F51" t="s">
+        <v>110</v>
+      </c>
       <c r="I51" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3121,6 +3262,9 @@
       <c r="C54" t="s">
         <v>167</v>
       </c>
+      <c r="D54" t="s">
+        <v>110</v>
+      </c>
       <c r="E54" t="s">
         <v>110</v>
       </c>
@@ -3148,12 +3292,24 @@
       <c r="C56" t="s">
         <v>169</v>
       </c>
+      <c r="D56" t="s">
+        <v>110</v>
+      </c>
       <c r="E56" t="s">
         <v>110</v>
       </c>
+      <c r="F56" t="s">
+        <v>110</v>
+      </c>
+      <c r="G56">
+        <v>6</v>
+      </c>
+      <c r="H56">
+        <v>6</v>
+      </c>
       <c r="I56" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Done</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.35">
